--- a/Desktop/Borang 2.0/ICPMS - Done/IQC.xlsx
+++ b/Desktop/Borang 2.0/ICPMS - Done/IQC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Borang 2.0\ICPMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Borang 2.0\ICPMS - Done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798CBFA4-85D7-4204-9500-4CA9AB8F1021}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D7CA06-B61E-4DCE-885B-DA2E7EB25009}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FormTitan" sheetId="4" r:id="rId1"/>
@@ -1011,221 +1011,130 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1442,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1534,13 +1443,19 @@
       <c r="A15" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="21"/>
+      <c r="B15" s="21">
+        <f>B8</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="21"/>
+      <c r="B16" s="21">
+        <f>B9</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="20" t="s">
@@ -1576,13 +1491,19 @@
       <c r="A22" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="21"/>
+      <c r="B22" s="21">
+        <f>B15</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="21"/>
+      <c r="B23" s="21">
+        <f>B16</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="20" t="s">
@@ -1618,13 +1539,19 @@
       <c r="A29" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="21"/>
+      <c r="B29" s="21">
+        <f>B22</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="21"/>
+      <c r="B30" s="21">
+        <f>B23</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="20" t="s">
@@ -1672,63 +1599,43 @@
     <mergeCell ref="A27:B27"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="30" priority="12">
+    <cfRule type="expression" dxfId="17" priority="19">
       <formula>LEN(B3)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B12">
-    <cfRule type="expression" dxfId="29" priority="11">
+    <cfRule type="expression" dxfId="16" priority="18">
       <formula>LEN(B7)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14 B17">
-    <cfRule type="expression" dxfId="28" priority="10">
+  <conditionalFormatting sqref="B35:B36">
+    <cfRule type="expression" dxfId="15" priority="14">
+      <formula>LEN(B35)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B19">
+    <cfRule type="expression" dxfId="14" priority="7">
       <formula>LEN(B14)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21 B24">
-    <cfRule type="expression" dxfId="27" priority="9">
+  <conditionalFormatting sqref="B21 B24:B26">
+    <cfRule type="expression" dxfId="13" priority="6">
       <formula>LEN(B21)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28 B31">
-    <cfRule type="expression" dxfId="26" priority="8">
+  <conditionalFormatting sqref="B28 B31:B33">
+    <cfRule type="expression" dxfId="12" priority="5">
       <formula>LEN(B28)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:B36">
-    <cfRule type="expression" dxfId="25" priority="7">
-      <formula>LEN(B35)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:B19">
-    <cfRule type="expression" dxfId="24" priority="6">
-      <formula>LEN(B18)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:B26">
-    <cfRule type="expression" dxfId="23" priority="5">
-      <formula>LEN(B25)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:B33">
-    <cfRule type="expression" dxfId="22" priority="4">
-      <formula>LEN(B32)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:B16">
-    <cfRule type="expression" dxfId="21" priority="3">
-      <formula>LEN(B15)=0</formula>
+  <conditionalFormatting sqref="B29:B30">
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>LEN(B29)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B23">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>LEN(B22)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:B30">
-    <cfRule type="expression" dxfId="19" priority="1">
-      <formula>LEN(B29)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1740,8 +1647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1760,19 +1667,19 @@
       <c r="A3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="24"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="24"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="26"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="31" t="s">
@@ -1832,13 +1739,19 @@
       <c r="A15" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="21"/>
+      <c r="B15" s="21">
+        <f>B8</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="21"/>
+      <c r="B16" s="21">
+        <f>B9</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="20" t="s">
@@ -1874,13 +1787,19 @@
       <c r="A22" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="21"/>
+      <c r="B22" s="21">
+        <f>B15</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="21"/>
+      <c r="B23" s="21">
+        <f>B16</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="20" t="s">
@@ -1916,13 +1835,19 @@
       <c r="A29" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="21"/>
+      <c r="B29" s="21">
+        <f>B22</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="21"/>
+      <c r="B30" s="21">
+        <f>B23</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="20" t="s">
@@ -1969,125 +1894,48 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A27:B27"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="18" priority="21">
+  <conditionalFormatting sqref="B35:B36">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>LEN(B35)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B5">
+    <cfRule type="expression" dxfId="10" priority="7">
       <formula>LEN(B3)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="17" priority="20">
-      <formula>LEN(B4)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="16" priority="19">
-      <formula>LEN(B5)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="15" priority="18">
+  <conditionalFormatting sqref="B7:B12">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>LEN(B7)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="14" priority="17">
-      <formula>LEN(B8)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="13" priority="16">
-      <formula>LEN(B10)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="12" priority="15">
-      <formula>LEN(B9)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="11" priority="14">
+  <conditionalFormatting sqref="B14:B19">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>LEN(B14)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="10" priority="13">
-      <formula>LEN(B15)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="9" priority="12">
-      <formula>LEN(B16)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="8" priority="11">
-      <formula>LEN(B17)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
-    <cfRule type="expression" dxfId="7" priority="10">
+  <conditionalFormatting sqref="B21 B24:B26">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>LEN(B21)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="6" priority="9">
+  <conditionalFormatting sqref="B28 B31:B33">
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>LEN(B28)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:B23">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>LEN(B22)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="5" priority="8">
-      <formula>LEN(B23)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="4" priority="7">
-      <formula>LEN(B24)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:B31">
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>LEN(B28)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:B36">
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>LEN(B35)=0</formula>
+  <conditionalFormatting sqref="B29:B30">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>LEN(B29)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="4" id="{9CE9DA8B-E761-4E00-8373-8D919B094CB6}">
-            <xm:f>LEN(FormTitan!B12)=0</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B11:B12 B18:B19 B25:B26</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{67BAF21B-884B-49AB-9DF1-352654CEE5A1}">
-            <xm:f>LEN(FormTitan!B33)=0</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B32:B33</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -13472,7 +13320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I995"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I20" sqref="I20:I23"/>
     </sheetView>
   </sheetViews>

--- a/Desktop/Borang 2.0/ICPMS - Done/IQC.xlsx
+++ b/Desktop/Borang 2.0/ICPMS - Done/IQC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Borang 2.0\ICPMS - Done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D7CA06-B61E-4DCE-885B-DA2E7EB25009}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B21F4F-985D-4917-88D2-6486F16C425A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FormTitan" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="50">
   <si>
     <t xml:space="preserve">Unit Analisis Tradisional </t>
   </si>
@@ -354,6 +354,9 @@
   <si>
     <t>Laporan Internal Quality Control ICPMS</t>
   </si>
+  <si>
+    <t>120524</t>
+  </si>
 </sst>
 </file>
 
@@ -364,11 +367,18 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="[$-14409]dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -745,287 +755,274 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -1351,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1371,7 +1368,9 @@
       <c r="A3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="103" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="25" t="s">
@@ -1599,42 +1598,42 @@
     <mergeCell ref="A27:B27"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="17" priority="19">
+    <cfRule type="expression" dxfId="15" priority="19">
       <formula>LEN(B3)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B12">
-    <cfRule type="expression" dxfId="16" priority="18">
+    <cfRule type="expression" dxfId="14" priority="18">
       <formula>LEN(B7)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:B36">
-    <cfRule type="expression" dxfId="15" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>LEN(B35)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B19">
-    <cfRule type="expression" dxfId="14" priority="7">
+    <cfRule type="expression" dxfId="12" priority="7">
       <formula>LEN(B14)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21 B24:B26">
-    <cfRule type="expression" dxfId="13" priority="6">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>LEN(B21)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28 B31:B33">
-    <cfRule type="expression" dxfId="12" priority="5">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>LEN(B28)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:B30">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>LEN(B29)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B23">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>LEN(B22)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1647,8 +1646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B28" activeCellId="3" sqref="B7:B12 B14:B19 B21:B26 B28:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1667,7 +1666,9 @@
       <c r="A3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="103" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="25" t="s">
@@ -1895,32 +1896,32 @@
     <mergeCell ref="A27:B27"/>
   </mergeCells>
   <conditionalFormatting sqref="B35:B36">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="7" priority="12">
       <formula>LEN(B35)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="10" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>LEN(B3)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B12">
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>LEN(B7)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B19">
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>LEN(B14)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21 B24:B26">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>LEN(B21)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28 B31:B33">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>LEN(B28)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1943,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I996"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1960,95 +1961,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="81"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="82">
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="69" t="str">
         <f>FormTitan!B3</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="68"/>
+        <v>120524</v>
+      </c>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="66">
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="73">
         <f>FormTitan!B4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="68"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="66">
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="73">
         <f>FormTitan!B5</f>
         <v>0</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="68"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="71"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
       <c r="F6" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="104">
         <f>FormTitan!B7</f>
         <v>0</v>
       </c>
-      <c r="H6" s="36"/>
+      <c r="H6" s="105"/>
       <c r="I6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2067,120 +2068,120 @@
       <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
       <c r="I7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="64">
+      <c r="B8" s="35">
         <f>FormTitan!B8</f>
         <v>0</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="35">
         <f>FormTitan!B10</f>
         <v>0</v>
       </c>
-      <c r="D8" s="64">
+      <c r="D8" s="35">
         <f>FormTitan!B11</f>
         <v>0</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="52">
         <f>D8-C8</f>
         <v>0</v>
       </c>
-      <c r="F8" s="53" t="e">
+      <c r="F8" s="54" t="e">
         <f>((D8-C8)/1000)/(2.5/B8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="48" t="e">
+      <c r="H8" s="75"/>
+      <c r="I8" s="45" t="e">
         <f>ABS(E8-E10)/AVERAGE(E8,E10)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A9" s="63"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="74" t="s">
+      <c r="A9" s="51"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="75"/>
-      <c r="I9" s="49"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="46"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="64">
+      <c r="B10" s="35">
         <f>FormTitan!B9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="35">
         <f>C8</f>
         <v>0</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="35">
         <f>FormTitan!B12</f>
         <v>0</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="52">
         <f>D10-C10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="53" t="e">
+      <c r="F10" s="54" t="e">
         <f>((D10-C10)/1000)/(2.5/B10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="49"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="46"/>
     </row>
     <row r="11" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A11" s="63"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="51" t="s">
+      <c r="A11" s="51"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="50"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="47"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="104">
         <f>FormTitan!B14</f>
         <v>0</v>
       </c>
-      <c r="H12" s="36"/>
+      <c r="H12" s="105"/>
       <c r="I12" s="1" t="s">
         <v>6</v>
       </c>
@@ -2199,120 +2200,120 @@
       <c r="E13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="63"/>
       <c r="I13" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="64">
+      <c r="B14" s="35">
         <f>FormTitan!B15</f>
         <v>0</v>
       </c>
-      <c r="C14" s="64">
+      <c r="C14" s="35">
         <f>FormTitan!B17</f>
         <v>0</v>
       </c>
-      <c r="D14" s="64">
+      <c r="D14" s="35">
         <f>FormTitan!B18</f>
         <v>0</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="52">
         <f>D14-C14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="53" t="e">
+      <c r="F14" s="54" t="e">
         <f>((D14-C14)/1000)/(0.15/B14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="48" t="e">
+      <c r="H14" s="57"/>
+      <c r="I14" s="45" t="e">
         <f>ABS(E14-E16)/AVERAGE(E14,E16)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="63"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="51" t="s">
+      <c r="A15" s="51"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="52"/>
-      <c r="I15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="46"/>
     </row>
     <row r="16" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="64">
+      <c r="B16" s="35">
         <f>FormTitan!B16</f>
         <v>0</v>
       </c>
-      <c r="C16" s="64">
+      <c r="C16" s="35">
         <f>C14</f>
         <v>0</v>
       </c>
-      <c r="D16" s="64">
+      <c r="D16" s="35">
         <f>FormTitan!B19</f>
         <v>0</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="52">
         <f>D16-C16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="53" t="e">
+      <c r="F16" s="54" t="e">
         <f>((D16-C16)/1000)/(0.15/B16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="49"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="46"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A17" s="63"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="51" t="s">
+      <c r="A17" s="51"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="52"/>
-      <c r="I17" s="50"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="47"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18" s="104">
         <f>FormTitan!B21</f>
         <v>0</v>
       </c>
-      <c r="H18" s="36"/>
+      <c r="H18" s="105"/>
       <c r="I18" s="1" t="s">
         <v>6</v>
       </c>
@@ -2331,120 +2332,120 @@
       <c r="E19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="47"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="63"/>
       <c r="I19" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="64">
+      <c r="B20" s="35">
         <f>FormTitan!B22</f>
         <v>0</v>
       </c>
-      <c r="C20" s="64">
+      <c r="C20" s="35">
         <f>FormTitan!B24</f>
         <v>0</v>
       </c>
-      <c r="D20" s="64">
+      <c r="D20" s="35">
         <f>FormTitan!B25</f>
         <v>0</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="52">
         <f>D20-C20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="53" t="e">
+      <c r="F20" s="54" t="e">
         <f>((D20-C20)/1000)/(0.25/B20)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="56"/>
-      <c r="I20" s="48" t="e">
+      <c r="H20" s="57"/>
+      <c r="I20" s="45" t="e">
         <f>ABS(E20-E22)/AVERAGE(E20,E22)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A21" s="63"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="51" t="s">
+      <c r="A21" s="51"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="52"/>
-      <c r="I21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="46"/>
     </row>
     <row r="22" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="64">
+      <c r="B22" s="35">
         <f>FormTitan!B23</f>
         <v>0</v>
       </c>
-      <c r="C22" s="64">
+      <c r="C22" s="35">
         <f>C20</f>
         <v>0</v>
       </c>
-      <c r="D22" s="64">
+      <c r="D22" s="35">
         <f>FormTitan!B26</f>
         <v>0</v>
       </c>
-      <c r="E22" s="57">
+      <c r="E22" s="52">
         <f>D22-C22</f>
         <v>0</v>
       </c>
-      <c r="F22" s="53" t="e">
+      <c r="F22" s="54" t="e">
         <f>((D22-C22)/1000)/(0.25/B22)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="55" t="s">
+      <c r="G22" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="56"/>
-      <c r="I22" s="49"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="46"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A23" s="63"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="51" t="s">
+      <c r="A23" s="51"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="52"/>
-      <c r="I23" s="50"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="47"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="61"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="60"/>
       <c r="F24" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="104">
         <f>FormTitan!B28</f>
         <v>0</v>
       </c>
-      <c r="H24" s="36"/>
+      <c r="H24" s="105"/>
       <c r="I24" s="1" t="s">
         <v>6</v>
       </c>
@@ -2463,103 +2464,103 @@
       <c r="E25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="45" t="s">
+      <c r="F25" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="46"/>
-      <c r="H25" s="47"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="63"/>
       <c r="I25" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="64">
+      <c r="B26" s="35">
         <f>FormTitan!B22</f>
         <v>0</v>
       </c>
-      <c r="C26" s="64">
+      <c r="C26" s="35">
         <f>FormTitan!B31</f>
         <v>0</v>
       </c>
-      <c r="D26" s="64">
+      <c r="D26" s="35">
         <f>FormTitan!B32</f>
         <v>0</v>
       </c>
-      <c r="E26" s="57">
+      <c r="E26" s="52">
         <f>D26-C26</f>
         <v>0</v>
       </c>
-      <c r="F26" s="53" t="e">
+      <c r="F26" s="54" t="e">
         <f>((D26-C26)/1000)/(5/B26)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="55" t="s">
+      <c r="G26" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="56"/>
-      <c r="I26" s="48" t="e">
+      <c r="H26" s="57"/>
+      <c r="I26" s="45" t="e">
         <f>ABS(E26-E28)/AVERAGE(E26,E28)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A27" s="63"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="51" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="52"/>
-      <c r="I27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="46"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="64">
+      <c r="B28" s="35">
         <f>FormTitan!B23</f>
         <v>0</v>
       </c>
-      <c r="C28" s="64">
+      <c r="C28" s="35">
         <f>C26</f>
         <v>0</v>
       </c>
-      <c r="D28" s="64">
+      <c r="D28" s="35">
         <f>FormTitan!B33</f>
         <v>0</v>
       </c>
-      <c r="E28" s="57">
+      <c r="E28" s="52">
         <f>D28-C28</f>
         <v>0</v>
       </c>
-      <c r="F28" s="53" t="e">
+      <c r="F28" s="54" t="e">
         <f>((D28-C28)/1000)/(5/B28)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="55" t="s">
+      <c r="G28" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="56"/>
-      <c r="I28" s="49"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="46"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A29" s="63"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="51" t="s">
+      <c r="A29" s="51"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="52"/>
-      <c r="I29" s="50"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="47"/>
     </row>
     <row r="30" spans="1:9" ht="18.75" customHeight="1">
       <c r="A30" s="13"/>
@@ -2573,58 +2574,58 @@
       <c r="I30" s="15"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A31" s="84" t="s">
+      <c r="A31" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="37">
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="78">
         <f>FormTitan!B35</f>
         <v>0</v>
       </c>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="41">
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="82">
         <f>FormTitan!B36</f>
         <v>0</v>
       </c>
-      <c r="I31" s="42"/>
+      <c r="I31" s="83"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A32" s="85"/>
-      <c r="B32" s="80"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="44"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="85"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A33" s="86" t="s">
+      <c r="A33" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="78"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="39"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A34" s="85"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="81"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="42"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="6"/>
@@ -13213,39 +13214,50 @@
     <protectedRange sqref="D3" name="Range1"/>
   </protectedRanges>
   <mergeCells count="93">
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A31:D32"/>
-    <mergeCell ref="A33:D34"/>
-    <mergeCell ref="E33:I34"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="E31:G32"/>
+    <mergeCell ref="H31:I32"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
@@ -13262,50 +13274,39 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E31:G32"/>
-    <mergeCell ref="H31:I32"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A31:D32"/>
+    <mergeCell ref="A33:D34"/>
+    <mergeCell ref="E33:I34"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -13320,8 +13321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I995"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20:I23"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -13339,95 +13340,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="81"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="66">
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="73" t="str">
         <f>FormGH!B3</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="68"/>
+        <v>120524</v>
+      </c>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="66">
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="73">
         <f>FormGH!B4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="68"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="66">
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="73">
         <f>FormGH!B5</f>
         <v>0</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="68"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="71"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="68"/>
       <c r="F6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="104">
         <f>FormGH!B7</f>
         <v>0</v>
       </c>
-      <c r="H6" s="36"/>
+      <c r="H6" s="105"/>
       <c r="I6" s="1" t="s">
         <v>6</v>
       </c>
@@ -13446,120 +13447,120 @@
       <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="98" t="s">
+      <c r="F7" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="77"/>
-      <c r="H7" s="78"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="64">
+      <c r="B8" s="35">
         <f>FormGH!B8</f>
         <v>0</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="35">
         <f>FormGH!B10</f>
         <v>0</v>
       </c>
-      <c r="D8" s="64">
+      <c r="D8" s="35">
         <f>FormGH!B11</f>
         <v>0</v>
       </c>
-      <c r="E8" s="104">
+      <c r="E8" s="93">
         <f>D8-C8</f>
         <v>0</v>
       </c>
-      <c r="F8" s="53" t="e">
+      <c r="F8" s="54" t="e">
         <f>((D8-C8)/1000)/(7.5/B8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="103"/>
-      <c r="I8" s="48" t="e">
+      <c r="H8" s="92"/>
+      <c r="I8" s="45" t="e">
         <f>ABS(E8-E10)/AVERAGE(E8,E10)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A9" s="100"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="51" t="s">
+      <c r="A9" s="89"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="101"/>
-      <c r="I9" s="99"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="88"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="64">
+      <c r="B10" s="35">
         <f>FormGH!B9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="35">
         <f>C8</f>
         <v>0</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="35">
         <f>FormGH!B12</f>
         <v>0</v>
       </c>
-      <c r="E10" s="104">
+      <c r="E10" s="93">
         <f>D10-C10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="53" t="e">
+      <c r="F10" s="54" t="e">
         <f>((D10-C10)/1000)/(7.5/B10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="103"/>
-      <c r="I10" s="99"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="88"/>
     </row>
     <row r="11" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A11" s="100"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="51" t="s">
+      <c r="A11" s="89"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="101"/>
-      <c r="I11" s="100"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="89"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="104">
         <f>FormGH!B14</f>
         <v>0</v>
       </c>
-      <c r="H12" s="36"/>
+      <c r="H12" s="105"/>
       <c r="I12" s="1" t="s">
         <v>6</v>
       </c>
@@ -13578,120 +13579,120 @@
       <c r="E13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="98" t="s">
+      <c r="F13" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="77"/>
-      <c r="H13" s="78"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
       <c r="I13" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="64">
+      <c r="B14" s="35">
         <f>FormGH!B15</f>
         <v>0</v>
       </c>
-      <c r="C14" s="64">
+      <c r="C14" s="35">
         <f>FormGH!B17</f>
         <v>0</v>
       </c>
-      <c r="D14" s="64">
+      <c r="D14" s="35">
         <f>FormGH!B18</f>
         <v>0</v>
       </c>
-      <c r="E14" s="104">
+      <c r="E14" s="93">
         <f>D14-C14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="53" t="e">
+      <c r="F14" s="54" t="e">
         <f>((D14-C14)/1000)/(0.45/B14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="103"/>
-      <c r="I14" s="48" t="e">
+      <c r="H14" s="92"/>
+      <c r="I14" s="45" t="e">
         <f>ABS(E14-E16)/AVERAGE(E14,E16)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="100"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="51" t="s">
+      <c r="A15" s="89"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="101"/>
-      <c r="I15" s="99"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="88"/>
     </row>
     <row r="16" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="64">
+      <c r="B16" s="35">
         <f>FormGH!B16</f>
         <v>0</v>
       </c>
-      <c r="C16" s="64">
+      <c r="C16" s="35">
         <f>C14</f>
         <v>0</v>
       </c>
-      <c r="D16" s="64">
+      <c r="D16" s="35">
         <f>FormGH!B19</f>
         <v>0</v>
       </c>
-      <c r="E16" s="104">
+      <c r="E16" s="93">
         <f>D16-C16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="53" t="e">
+      <c r="F16" s="54" t="e">
         <f>((D16-C16)/1000)/(0.45/B16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="103"/>
-      <c r="I16" s="99"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="88"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A17" s="100"/>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="51" t="s">
+      <c r="A17" s="89"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="101"/>
-      <c r="I17" s="100"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="89"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="71"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="68"/>
       <c r="F18" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="88">
+      <c r="G18" s="106">
         <f>FormGH!B21</f>
         <v>0</v>
       </c>
-      <c r="H18" s="89"/>
+      <c r="H18" s="107"/>
       <c r="I18" s="1" t="s">
         <v>6</v>
       </c>
@@ -13710,120 +13711,120 @@
       <c r="E19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="98" t="s">
+      <c r="F19" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="77"/>
-      <c r="H19" s="78"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
       <c r="I19" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="64">
+      <c r="B20" s="35">
         <f>FormGH!B22</f>
         <v>0</v>
       </c>
-      <c r="C20" s="64">
+      <c r="C20" s="35">
         <f>FormGH!B24</f>
         <v>0</v>
       </c>
-      <c r="D20" s="64">
+      <c r="D20" s="35">
         <f>FormGH!B25</f>
         <v>0</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="52">
         <f>D20-C20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="53" t="e">
+      <c r="F20" s="54" t="e">
         <f>((D20-C20)/1000)/(0.75/B20)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="103"/>
-      <c r="I20" s="48" t="e">
+      <c r="H20" s="92"/>
+      <c r="I20" s="45" t="e">
         <f>ABS(E20-E22)/AVERAGE(E20,E22)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A21" s="100"/>
-      <c r="B21" s="105"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="51" t="s">
+      <c r="A21" s="89"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="101"/>
-      <c r="I21" s="99"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="88"/>
     </row>
     <row r="22" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="64">
+      <c r="B22" s="35">
         <f>FormGH!B23</f>
         <v>0</v>
       </c>
-      <c r="C22" s="64">
+      <c r="C22" s="35">
         <f>C20</f>
         <v>0</v>
       </c>
-      <c r="D22" s="64">
+      <c r="D22" s="35">
         <f>FormGH!B26</f>
         <v>0</v>
       </c>
-      <c r="E22" s="57">
+      <c r="E22" s="52">
         <f>D22-C22</f>
         <v>0</v>
       </c>
-      <c r="F22" s="53" t="e">
+      <c r="F22" s="54" t="e">
         <f>((D22-C22)/1000)/(0.75/B22)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="55" t="s">
+      <c r="G22" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="103"/>
-      <c r="I22" s="99"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="88"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A23" s="100"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="51" t="s">
+      <c r="A23" s="89"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="101"/>
-      <c r="I23" s="100"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="89"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="71"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="68"/>
       <c r="F24" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="104">
         <f>FormGH!B28</f>
         <v>0</v>
       </c>
-      <c r="H24" s="36"/>
+      <c r="H24" s="105"/>
       <c r="I24" s="1" t="s">
         <v>6</v>
       </c>
@@ -13842,157 +13843,157 @@
       <c r="E25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="98" t="s">
+      <c r="F25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="77"/>
-      <c r="H25" s="78"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="39"/>
       <c r="I25" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="64">
+      <c r="B26" s="35">
         <f>FormGH!B29</f>
         <v>0</v>
       </c>
-      <c r="C26" s="64">
+      <c r="C26" s="35">
         <f>FormGH!B31</f>
         <v>0</v>
       </c>
-      <c r="D26" s="64">
+      <c r="D26" s="35">
         <f>FormGH!B32</f>
         <v>0</v>
       </c>
-      <c r="E26" s="57">
+      <c r="E26" s="52">
         <f>D26-C26</f>
         <v>0</v>
       </c>
-      <c r="F26" s="53" t="e">
+      <c r="F26" s="54" t="e">
         <f>((D26-C26)/1000)/(15/B26)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="55" t="s">
+      <c r="G26" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="103"/>
-      <c r="I26" s="48" t="e">
+      <c r="H26" s="92"/>
+      <c r="I26" s="45" t="e">
         <f>ABS(E26-E28)/AVERAGE(E26,E28)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A27" s="100"/>
-      <c r="B27" s="105"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="51" t="s">
+      <c r="A27" s="89"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="101"/>
-      <c r="I27" s="99"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="88"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="64">
+      <c r="B28" s="35">
         <f>FormGH!B30</f>
         <v>0</v>
       </c>
-      <c r="C28" s="64">
+      <c r="C28" s="35">
         <f>C26</f>
         <v>0</v>
       </c>
-      <c r="D28" s="64">
+      <c r="D28" s="35">
         <f>FormGH!B33</f>
         <v>0</v>
       </c>
-      <c r="E28" s="57">
+      <c r="E28" s="52">
         <f>D28-C28</f>
         <v>0</v>
       </c>
-      <c r="F28" s="53" t="e">
+      <c r="F28" s="54" t="e">
         <f>((D28-C28)/1000)/(15/B28)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="55" t="s">
+      <c r="G28" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="103"/>
-      <c r="I28" s="99"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="88"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A29" s="100"/>
-      <c r="B29" s="105"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="51" t="s">
+      <c r="A29" s="89"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="101"/>
-      <c r="I29" s="100"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="89"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="90">
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="95">
         <f>FormGH!B35</f>
         <v>0</v>
       </c>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="94">
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="99">
         <f>FormGH!B36</f>
         <v>0</v>
       </c>
-      <c r="I30" s="95"/>
+      <c r="I30" s="100"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A31" s="85"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="97"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="102"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A32" s="86" t="s">
+      <c r="A32" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="78"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="39"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A33" s="85"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="81"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="42"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="6"/>
@@ -24578,39 +24579,50 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A30:D31"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="E32:I33"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="H30:I31"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
@@ -24627,50 +24639,39 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="H30:I31"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A30:D31"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="E32:I33"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
